--- a/sputnik/personal/ee/82ee.xlsx
+++ b/sputnik/personal/ee/82ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -24,15 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -42,10 +36,28 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>Пени</t>
-  </si>
-  <si>
-    <t xml:space="preserve">переплата </t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
+  </si>
+  <si>
+    <t>пени</t>
+  </si>
+  <si>
+    <t>итого с пенями</t>
   </si>
 </sst>
 </file>
@@ -53,7 +65,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -150,20 +162,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -182,13 +191,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -496,10 +522,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -510,414 +536,334 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>43763</v>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>43563</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>13801</v>
-      </c>
-      <c r="D2" s="3">
-        <f>C2-C4</f>
-        <v>119</v>
-      </c>
-      <c r="E2" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F2" s="6">
-        <f>D2*E2</f>
-        <v>534.31000000000006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="3" t="s">
+        <v>13393</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="10">
+        <v>4.57</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5">
+        <v>875.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>7184</v>
-      </c>
-      <c r="D3" s="3">
-        <f>C3-C5</f>
-        <v>73</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F3" s="6">
-        <f>D3*E3</f>
-        <v>177.39000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>43704</v>
+        <v>6923</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="11">
+        <v>2.39</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>43656</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>13682</v>
+        <v>13630</v>
       </c>
       <c r="D4" s="3">
-        <f>C4-C8</f>
-        <v>52</v>
-      </c>
-      <c r="E4" s="8">
+        <f>SUM(C4,-C2)</f>
+        <v>237</v>
+      </c>
+      <c r="E4" s="7">
         <v>4.49</v>
       </c>
-      <c r="F4" s="6">
-        <f>D4*E4</f>
-        <v>233.48000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F9" si="0">D4*E4</f>
+        <v>1064.1300000000001</v>
+      </c>
+      <c r="G4" s="5">
+        <f>SUM(F4,F5)</f>
+        <v>1418.91</v>
+      </c>
+      <c r="H4" s="5">
+        <v>636.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>7111</v>
+        <v>7069</v>
       </c>
       <c r="D5" s="3">
-        <f>C5-C9</f>
-        <v>42</v>
+        <f>SUM(C5,-C3)</f>
+        <v>146</v>
       </c>
       <c r="E5" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F5" s="6">
-        <f>D5*E5</f>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>354.78000000000003</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>43704</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>13682</v>
+      </c>
+      <c r="D6" s="3">
+        <f>C6-C4</f>
+        <v>52</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>233.48000000000002</v>
+      </c>
+      <c r="G6" s="5">
+        <f>SUM(F6,F7)</f>
+        <v>335.54</v>
+      </c>
+      <c r="H6" s="5">
+        <v>281.16000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7111</v>
+      </c>
+      <c r="D7" s="3">
+        <f>C7-C5</f>
+        <v>42</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
         <v>102.06</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="6">
-        <v>54.38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="6">
-        <v>33.08</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
-        <v>43656</v>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>43763</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>13630</v>
+        <v>13801</v>
       </c>
       <c r="D8" s="3">
-        <f>C8-C13</f>
-        <v>235</v>
-      </c>
-      <c r="E8" s="8">
+        <f>C8-C6</f>
+        <v>119</v>
+      </c>
+      <c r="E8" s="7">
         <v>4.49</v>
       </c>
-      <c r="F8" s="6">
-        <f>D8*E8</f>
-        <v>1055.1500000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>534.31000000000006</v>
+      </c>
+      <c r="G8" s="5">
+        <f>SUM(F8,F9)</f>
+        <v>711.7</v>
+      </c>
+      <c r="H8" s="5">
+        <v>711.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>7069</v>
+        <v>7184</v>
       </c>
       <c r="D9" s="3">
-        <f>C9-C14</f>
-        <v>152</v>
+        <f>C9-C7</f>
+        <v>73</v>
       </c>
       <c r="E9" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F9" s="6">
-        <f>D9*E9</f>
-        <v>369.36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
-        <v>43563</v>
-      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>177.39000000000001</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>43917</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>14122</v>
+      </c>
+      <c r="D10" s="3">
+        <f>C10-C8</f>
+        <v>321</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ref="F10:F11" si="1">D10*E10</f>
+        <v>1441.29</v>
+      </c>
+      <c r="G10" s="5">
+        <f>SUM(F10,F11)</f>
+        <v>1900.56</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
       <c r="B11" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>13393</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="11">
-        <v>4.57</v>
-      </c>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3">
-        <v>6923</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="12">
-        <v>2.39</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>43407</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>13395</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" ref="D13:D20" si="0">C13-C15</f>
-        <v>239</v>
-      </c>
-      <c r="E13" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F13" s="6">
-        <f>D13*E13</f>
-        <v>1075.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3">
-        <v>6917</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="E14" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F14" s="6">
-        <f>D14*E14</f>
-        <v>230.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>43323</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>13156</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="0"/>
-        <v>131</v>
-      </c>
-      <c r="E15" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" ref="F15:F20" si="1">D15*E15</f>
-        <v>589.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3">
-        <v>6819</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F16" s="6">
+        <v>7373</v>
+      </c>
+      <c r="D11" s="3">
+        <f>C11-C9</f>
+        <v>189</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="5">
         <f t="shared" si="1"/>
-        <v>178.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>43281</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>13025</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4.29</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="1"/>
-        <v>244.53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3">
-        <v>6743</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2.17</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" si="1"/>
-        <v>75.95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>43261</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3">
-        <v>12968</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="0"/>
-        <v>395</v>
-      </c>
-      <c r="E19" s="3">
-        <v>4.29</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" si="1"/>
-        <v>1694.55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3">
-        <v>6708</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" si="0"/>
-        <v>234</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2.17</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" si="1"/>
-        <v>507.78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>43182</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="5">
-        <v>12573</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="5">
-        <v>6474</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+        <v>459.27000000000004</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="5">
+        <f>SUM(G2:G11)</f>
+        <v>4366.71</v>
+      </c>
+      <c r="H12" s="5">
+        <f>SUM(H2:H11)</f>
+        <v>4504.7299999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>43656</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="19">
+        <v>33.08</v>
+      </c>
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="19">
+        <f>SUM(G12,G13)</f>
+        <v>4399.79</v>
+      </c>
+      <c r="H14" s="19">
+        <f>SUM(H12,H13)</f>
+        <v>4504.7299999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5">
+        <f>SUM(H14,-G14)</f>
+        <v>104.9399999999996</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/82ee.xlsx
+++ b/sputnik/personal/ee/82ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -48,13 +48,7 @@
     <t>оплачено</t>
   </si>
   <si>
-    <t>итого за период</t>
-  </si>
-  <si>
     <t>остаток</t>
-  </si>
-  <si>
-    <t>пени</t>
   </si>
   <si>
     <t>итого с пенями</t>
@@ -162,10 +156,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -525,7 +518,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -543,326 +536,348 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>43563</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>13393</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="10">
+      <c r="D2" s="2"/>
+      <c r="E2" s="9">
         <v>4.57</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5">
+      <c r="F2" s="11"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4">
         <v>875.85</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>6923</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="11">
+      <c r="D3" s="2"/>
+      <c r="E3" s="10">
         <v>2.39</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>43656</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>13630</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f>SUM(C4,-C2)</f>
         <v>237</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>4.49</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <f t="shared" ref="F4:F9" si="0">D4*E4</f>
         <v>1064.1300000000001</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <f>SUM(F4,F5)</f>
         <v>1418.91</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>636.12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>7069</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f>SUM(C5,-C3)</f>
         <v>146</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <f t="shared" si="0"/>
         <v>354.78000000000003</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>43704</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>13682</v>
       </c>
-      <c r="D6" s="3">
-        <f>C6-C4</f>
+      <c r="D6" s="2">
+        <f t="shared" ref="D6:D11" si="1">C6-C4</f>
         <v>52</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>4.49</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>233.48000000000002</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <f>SUM(F6,F7)</f>
         <v>335.54</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>281.16000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>7111</v>
       </c>
-      <c r="D7" s="3">
-        <f>C7-C5</f>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>102.06</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>43763</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>13801</v>
       </c>
-      <c r="D8" s="3">
-        <f>C8-C6</f>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>4.49</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>534.31000000000006</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <f>SUM(F8,F9)</f>
         <v>711.7</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>711.6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>7184</v>
       </c>
-      <c r="D9" s="3">
-        <f>C9-C7</f>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <f t="shared" si="0"/>
         <v>177.39000000000001</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>43917</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>14122</v>
       </c>
-      <c r="D10" s="3">
-        <f>C10-C8</f>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
         <v>321</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>4.49</v>
       </c>
-      <c r="F10" s="5">
-        <f t="shared" ref="F10:F11" si="1">D10*E10</f>
+      <c r="F10" s="4">
+        <f t="shared" ref="F10:F11" si="2">D10*E10</f>
         <v>1441.29</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <f>SUM(F10,F11)</f>
         <v>1900.56</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>7373</v>
       </c>
-      <c r="D11" s="3">
-        <f>C11-C9</f>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
         <v>189</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F11" s="5">
-        <f t="shared" si="1"/>
+      <c r="F11" s="4">
+        <f t="shared" si="2"/>
         <v>459.27000000000004</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="20" t="s">
+      <c r="A12" s="7">
+        <v>43980</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>14578</v>
+      </c>
+      <c r="D12" s="2">
+        <f>SUM(C12,-C10)</f>
+        <v>456</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" ref="F12:F13" si="3">D12*E12</f>
+        <v>2047.44</v>
+      </c>
+      <c r="G12" s="4">
+        <f>SUM(F12,F13)</f>
+        <v>2360.91</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>7502</v>
+      </c>
+      <c r="D13" s="2">
+        <f>SUM(C13,-C11)</f>
+        <v>129</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="3"/>
+        <v>313.47000000000003</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="18">
+        <f>SUM(G12,G13)</f>
+        <v>2360.91</v>
+      </c>
+      <c r="H14" s="18">
+        <f>SUM(H12,H13)</f>
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="5">
-        <f>SUM(G2:G11)</f>
-        <v>4366.71</v>
-      </c>
-      <c r="H12" s="5">
-        <f>SUM(H2:H11)</f>
-        <v>4504.7299999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>43656</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="19">
-        <v>33.08</v>
-      </c>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="19">
-        <f>SUM(G12,G13)</f>
-        <v>4399.79</v>
-      </c>
-      <c r="H14" s="19">
-        <f>SUM(H12,H13)</f>
-        <v>4504.7299999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4">
         <f>SUM(H14,-G14)</f>
-        <v>104.9399999999996</v>
+        <v>-5.9099999999998545</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/82ee.xlsx
+++ b/sputnik/personal/ee/82ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -515,10 +515,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -853,30 +853,81 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="20" t="s">
+      <c r="A14" s="7">
+        <v>44064</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>14578</v>
+      </c>
+      <c r="D14" s="2">
+        <f>SUM(C14,-C12)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" ref="F14:F15" si="4">D14*E14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <f>SUM(F14,F15)</f>
+        <v>1280.0999999999999</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1280.0999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>8004</v>
+      </c>
+      <c r="D15" s="2">
+        <f>SUM(C15,-C13)</f>
+        <v>502</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="4"/>
+        <v>1280.0999999999999</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="18">
-        <f>SUM(G12,G13)</f>
+      <c r="G16" s="18">
+        <f>SUM(G12,G15)</f>
         <v>2360.91</v>
       </c>
-      <c r="H14" s="18">
-        <f>SUM(H12,H13)</f>
+      <c r="H16" s="18">
+        <f>SUM(H12,H15)</f>
         <v>2355</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="19" t="s">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4">
-        <f>SUM(H14,-G14)</f>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4">
+        <f>SUM(H16,-G16)</f>
         <v>-5.9099999999998545</v>
       </c>
     </row>

--- a/sputnik/personal/ee/82ee.xlsx
+++ b/sputnik/personal/ee/82ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -515,10 +515,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -904,30 +904,81 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="20" t="s">
+      <c r="A16" s="7">
+        <v>44081</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>15281</v>
+      </c>
+      <c r="D16" s="2">
+        <f>SUM(C16,-C14)</f>
+        <v>703</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" ref="F16:F17" si="5">D16*E16</f>
+        <v>3311.13</v>
+      </c>
+      <c r="G16" s="4">
+        <f>SUM(F16,F17)</f>
+        <v>3311.13</v>
+      </c>
+      <c r="H16" s="4">
+        <v>3311.13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>8004</v>
+      </c>
+      <c r="D17" s="2">
+        <f>SUM(C17,-C15)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="18">
-        <f>SUM(G12,G15)</f>
+      <c r="G18" s="18">
+        <f>SUM(G12,G17)</f>
         <v>2360.91</v>
       </c>
-      <c r="H16" s="18">
-        <f>SUM(H12,H15)</f>
+      <c r="H18" s="18">
+        <f>SUM(H12,H17)</f>
         <v>2355</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="19" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4">
-        <f>SUM(H16,-G16)</f>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4">
+        <f>SUM(H18,-G18)</f>
         <v>-5.9099999999998545</v>
       </c>
     </row>

--- a/sputnik/personal/ee/82ee.xlsx
+++ b/sputnik/personal/ee/82ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -51,7 +51,7 @@
     <t>остаток</t>
   </si>
   <si>
-    <t>итого с пенями</t>
+    <t>итого</t>
   </si>
 </sst>
 </file>
@@ -515,10 +515,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -562,119 +562,134 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>43563</v>
+      <c r="A2" s="7">
+        <v>44176</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>13393</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="9">
-        <v>4.57</v>
-      </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="4"/>
+        <v>15631</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" ref="D2:D15" si="0">SUM(C2,-C4)</f>
+        <v>350</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F2" s="4">
+        <f t="shared" ref="F2:F17" si="1">D2*E2</f>
+        <v>1648.5</v>
+      </c>
+      <c r="G2" s="4">
+        <f>SUM(F2,F3)</f>
+        <v>2031</v>
+      </c>
       <c r="H2" s="4">
-        <v>875.85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="8" t="s">
+        <v>2036.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>6923</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="10">
-        <v>2.39</v>
-      </c>
-      <c r="F3" s="4"/>
+        <v>8154</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" si="1"/>
+        <v>382.5</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>43656</v>
+      <c r="A4" s="7">
+        <v>44081</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>13630</v>
+        <v>15281</v>
       </c>
       <c r="D4" s="2">
-        <f>SUM(C4,-C2)</f>
-        <v>237</v>
+        <f t="shared" si="0"/>
+        <v>703</v>
       </c>
       <c r="E4" s="6">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" ref="F4:F9" si="0">D4*E4</f>
-        <v>1064.1300000000001</v>
+        <f t="shared" si="1"/>
+        <v>3311.13</v>
       </c>
       <c r="G4" s="4">
         <f>SUM(F4,F5)</f>
-        <v>1418.91</v>
+        <v>3311.13</v>
       </c>
       <c r="H4" s="4">
-        <v>636.12</v>
+        <v>3311.13</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>7069</v>
+        <v>8004</v>
       </c>
       <c r="D5" s="2">
-        <f>SUM(C5,-C3)</f>
-        <v>146</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="0"/>
-        <v>354.78000000000003</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>43704</v>
+        <v>44064</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>13682</v>
+        <v>14578</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ref="D6:D11" si="1">C6-C4</f>
-        <v>52</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E6" s="6">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="0"/>
-        <v>233.48000000000002</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
         <f>SUM(F6,F7)</f>
-        <v>335.54</v>
+        <v>1280.0999999999999</v>
       </c>
       <c r="H6" s="4">
-        <v>281.16000000000003</v>
+        <v>1280.0999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -683,49 +698,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>7111</v>
+        <v>8004</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="1"/>
-        <v>42</v>
+        <f t="shared" si="0"/>
+        <v>502</v>
       </c>
       <c r="E7" s="2">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="0"/>
-        <v>102.06</v>
+        <f t="shared" si="1"/>
+        <v>1280.0999999999999</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>43763</v>
+        <v>43980</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>13801</v>
+        <v>14578</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="1"/>
-        <v>119</v>
+        <f t="shared" si="0"/>
+        <v>456</v>
       </c>
       <c r="E8" s="6">
         <v>4.49</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="0"/>
-        <v>534.31000000000006</v>
+        <f t="shared" si="1"/>
+        <v>2047.44</v>
       </c>
       <c r="G8" s="4">
         <f>SUM(F8,F9)</f>
-        <v>711.7</v>
+        <v>2360.91</v>
       </c>
       <c r="H8" s="4">
-        <v>711.6</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -734,18 +749,18 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>7184</v>
+        <v>7502</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="1"/>
-        <v>73</v>
+        <f t="shared" si="0"/>
+        <v>129</v>
       </c>
       <c r="E9" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="0"/>
-        <v>177.39000000000001</v>
+        <f t="shared" si="1"/>
+        <v>313.47000000000003</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -761,14 +776,14 @@
         <v>14122</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>321</v>
       </c>
       <c r="E10" s="6">
         <v>4.49</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" ref="F10:F11" si="2">D10*E10</f>
+        <f t="shared" si="1"/>
         <v>1441.29</v>
       </c>
       <c r="G10" s="4">
@@ -788,14 +803,14 @@
         <v>7373</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>189</v>
       </c>
       <c r="E11" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>459.27000000000004</v>
       </c>
       <c r="G11" s="4"/>
@@ -803,31 +818,31 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>43980</v>
+        <v>43763</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>14578</v>
+        <v>13801</v>
       </c>
       <c r="D12" s="2">
-        <f>SUM(C12,-C10)</f>
-        <v>456</v>
+        <f t="shared" si="0"/>
+        <v>119</v>
       </c>
       <c r="E12" s="6">
         <v>4.49</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" ref="F12:F13" si="3">D12*E12</f>
-        <v>2047.44</v>
+        <f t="shared" si="1"/>
+        <v>534.31000000000006</v>
       </c>
       <c r="G12" s="4">
         <f>SUM(F12,F13)</f>
-        <v>2360.91</v>
+        <v>711.7</v>
       </c>
       <c r="H12" s="4">
-        <v>2355</v>
+        <v>711.6</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -836,49 +851,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>7502</v>
+        <v>7184</v>
       </c>
       <c r="D13" s="2">
-        <f>SUM(C13,-C11)</f>
-        <v>129</v>
+        <f t="shared" si="0"/>
+        <v>73</v>
       </c>
       <c r="E13" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="3"/>
-        <v>313.47000000000003</v>
+        <f t="shared" si="1"/>
+        <v>177.39000000000001</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>44064</v>
+        <v>43704</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>14578</v>
+        <v>13682</v>
       </c>
       <c r="D14" s="2">
-        <f>SUM(C14,-C12)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>52</v>
       </c>
       <c r="E14" s="6">
-        <v>4.71</v>
+        <v>4.49</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" ref="F14:F15" si="4">D14*E14</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>233.48000000000002</v>
       </c>
       <c r="G14" s="4">
         <f>SUM(F14,F15)</f>
-        <v>1280.0999999999999</v>
+        <v>335.54</v>
       </c>
       <c r="H14" s="4">
-        <v>1280.0999999999999</v>
+        <v>281.16000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -887,99 +902,135 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>8004</v>
+        <v>7111</v>
       </c>
       <c r="D15" s="2">
-        <f>SUM(C15,-C13)</f>
-        <v>502</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="E15" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="4"/>
-        <v>1280.0999999999999</v>
+        <f t="shared" si="1"/>
+        <v>102.06</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>44081</v>
+      <c r="A16" s="12">
+        <v>43656</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>15281</v>
+        <v>13630</v>
       </c>
       <c r="D16" s="2">
-        <f>SUM(C16,-C14)</f>
-        <v>703</v>
+        <f>SUM(C16,-C18)</f>
+        <v>237</v>
       </c>
       <c r="E16" s="6">
-        <v>4.71</v>
+        <v>4.49</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" ref="F16:F17" si="5">D16*E16</f>
-        <v>3311.13</v>
+        <f t="shared" si="1"/>
+        <v>1064.1300000000001</v>
       </c>
       <c r="G16" s="4">
         <f>SUM(F16,F17)</f>
-        <v>3311.13</v>
+        <v>1418.91</v>
       </c>
       <c r="H16" s="4">
-        <v>3311.13</v>
+        <v>636.12</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>8004</v>
+        <v>7069</v>
       </c>
       <c r="D17" s="2">
-        <f>SUM(C17,-C15)</f>
-        <v>0</v>
+        <f>SUM(C17,-C19)</f>
+        <v>146</v>
       </c>
       <c r="E17" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>354.78000000000003</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="20" t="s">
+      <c r="A18" s="12">
+        <v>43563</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>13393</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="9">
+        <v>4.57</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4">
+        <v>875.85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>6923</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="10">
+        <v>2.39</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="18">
-        <f>SUM(G12,G17)</f>
-        <v>2360.91</v>
-      </c>
-      <c r="H18" s="18">
-        <f>SUM(H12,H17)</f>
-        <v>2355</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="19" t="s">
+      <c r="G20" s="18">
+        <f>SUM(G2:G19)</f>
+        <v>13349.85</v>
+      </c>
+      <c r="H20" s="18">
+        <f>SUM(H2:H19)</f>
+        <v>13487.060000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4">
-        <f>SUM(H18,-G18)</f>
-        <v>-5.9099999999998545</v>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4">
+        <f>SUM(H20,-G20)</f>
+        <v>137.21000000000095</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/82ee.xlsx
+++ b/sputnik/personal/ee/82ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -106,12 +106,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -156,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -208,6 +214,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -515,10 +522,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -561,42 +568,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>44176</v>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
+        <v>44221</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>15631</v>
+        <v>15956</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D15" si="0">SUM(C2,-C4)</f>
-        <v>350</v>
+        <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
+        <v>325</v>
       </c>
       <c r="E2" s="6">
         <v>4.71</v>
       </c>
       <c r="F2" s="4">
-        <f t="shared" ref="F2:F17" si="1">D2*E2</f>
-        <v>1648.5</v>
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
+        <v>1530.75</v>
       </c>
       <c r="G2" s="4">
         <f>SUM(F2,F3)</f>
-        <v>2031</v>
+        <v>1913.25</v>
       </c>
       <c r="H2" s="4">
-        <v>2036.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1908.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>8154</v>
+        <v>8304</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
@@ -614,31 +621,31 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>44081</v>
+        <v>44176</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>15281</v>
+        <v>15631</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>703</v>
+        <f t="shared" ref="D4:D17" si="2">SUM(C4,-C6)</f>
+        <v>350</v>
       </c>
       <c r="E4" s="6">
         <v>4.71</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" si="1"/>
-        <v>3311.13</v>
+        <f t="shared" ref="F4:F20" si="3">D4*E4</f>
+        <v>1648.5</v>
       </c>
       <c r="G4" s="4">
         <f>SUM(F4,F5)</f>
-        <v>3311.13</v>
+        <v>2031</v>
       </c>
       <c r="H4" s="4">
-        <v>3311.13</v>
+        <v>2036.1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -647,49 +654,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>8004</v>
+        <v>8154</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>150</v>
       </c>
       <c r="E5" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>382.5</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>44064</v>
+        <v>44081</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>14578</v>
+        <v>15281</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>703</v>
       </c>
       <c r="E6" s="6">
         <v>4.71</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3311.13</v>
       </c>
       <c r="G6" s="4">
         <f>SUM(F6,F7)</f>
-        <v>1280.0999999999999</v>
+        <v>3311.13</v>
       </c>
       <c r="H6" s="4">
-        <v>1280.0999999999999</v>
+        <v>3311.13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -701,22 +708,22 @@
         <v>8004</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>502</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="1"/>
-        <v>1280.0999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>43980</v>
+        <v>44064</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
@@ -725,22 +732,22 @@
         <v>14578</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>456</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E8" s="6">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="1"/>
-        <v>2047.44</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
         <f>SUM(F8,F9)</f>
-        <v>2360.91</v>
+        <v>1280.0999999999999</v>
       </c>
       <c r="H8" s="4">
-        <v>2355</v>
+        <v>1280.0999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -749,49 +756,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>7502</v>
+        <v>8004</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>129</v>
+        <f t="shared" si="2"/>
+        <v>502</v>
       </c>
       <c r="E9" s="2">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="1"/>
-        <v>313.47000000000003</v>
+        <f t="shared" si="3"/>
+        <v>1280.0999999999999</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>43917</v>
+        <v>43980</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>14122</v>
+        <v>14578</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>321</v>
+        <f t="shared" si="2"/>
+        <v>456</v>
       </c>
       <c r="E10" s="6">
         <v>4.49</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="1"/>
-        <v>1441.29</v>
+        <f t="shared" si="3"/>
+        <v>2047.44</v>
       </c>
       <c r="G10" s="4">
         <f>SUM(F10,F11)</f>
-        <v>1900.56</v>
+        <v>2360.91</v>
       </c>
       <c r="H10" s="4">
-        <v>2000</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -800,49 +807,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>7373</v>
+        <v>7502</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>189</v>
+        <f t="shared" si="2"/>
+        <v>129</v>
       </c>
       <c r="E11" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="1"/>
-        <v>459.27000000000004</v>
+        <f t="shared" si="3"/>
+        <v>313.47000000000003</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>43763</v>
+        <v>43917</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>13801</v>
+        <v>14122</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>119</v>
+        <f t="shared" si="2"/>
+        <v>321</v>
       </c>
       <c r="E12" s="6">
         <v>4.49</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="1"/>
-        <v>534.31000000000006</v>
+        <f t="shared" si="3"/>
+        <v>1441.29</v>
       </c>
       <c r="G12" s="4">
         <f>SUM(F12,F13)</f>
-        <v>711.7</v>
+        <v>1900.56</v>
       </c>
       <c r="H12" s="4">
-        <v>711.6</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -851,49 +858,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>7184</v>
+        <v>7373</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>73</v>
+        <f t="shared" si="2"/>
+        <v>189</v>
       </c>
       <c r="E13" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="1"/>
-        <v>177.39000000000001</v>
+        <f t="shared" si="3"/>
+        <v>459.27000000000004</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>43704</v>
+        <v>43763</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>13682</v>
+        <v>13801</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <f t="shared" si="2"/>
+        <v>119</v>
       </c>
       <c r="E14" s="6">
         <v>4.49</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="1"/>
-        <v>233.48000000000002</v>
+        <f t="shared" si="3"/>
+        <v>534.31000000000006</v>
       </c>
       <c r="G14" s="4">
         <f>SUM(F14,F15)</f>
-        <v>335.54</v>
+        <v>711.7</v>
       </c>
       <c r="H14" s="4">
-        <v>281.16000000000003</v>
+        <v>711.6</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -902,135 +909,186 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>7111</v>
+        <v>7184</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <f t="shared" si="2"/>
+        <v>73</v>
       </c>
       <c r="E15" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="1"/>
-        <v>102.06</v>
+        <f t="shared" si="3"/>
+        <v>177.39000000000001</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>43656</v>
+      <c r="A16" s="7">
+        <v>43704</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>13630</v>
+        <v>13682</v>
       </c>
       <c r="D16" s="2">
-        <f>SUM(C16,-C18)</f>
-        <v>237</v>
+        <f t="shared" si="2"/>
+        <v>52</v>
       </c>
       <c r="E16" s="6">
         <v>4.49</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="1"/>
-        <v>1064.1300000000001</v>
+        <f t="shared" si="3"/>
+        <v>233.48000000000002</v>
       </c>
       <c r="G16" s="4">
         <f>SUM(F16,F17)</f>
-        <v>1418.91</v>
+        <v>335.54</v>
       </c>
       <c r="H16" s="4">
-        <v>636.12</v>
+        <v>281.16000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>7069</v>
+        <v>7111</v>
       </c>
       <c r="D17" s="2">
-        <f>SUM(C17,-C19)</f>
-        <v>146</v>
+        <f t="shared" si="2"/>
+        <v>42</v>
       </c>
       <c r="E17" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="1"/>
-        <v>354.78000000000003</v>
+        <f t="shared" si="3"/>
+        <v>102.06</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
-        <v>43563</v>
+        <v>43656</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>13393</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="9">
-        <v>4.57</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="4"/>
+        <v>13630</v>
+      </c>
+      <c r="D18" s="2">
+        <f>SUM(C18,-C20)</f>
+        <v>237</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="3"/>
+        <v>1064.1300000000001</v>
+      </c>
+      <c r="G18" s="4">
+        <f>SUM(F18,F19)</f>
+        <v>1418.91</v>
+      </c>
       <c r="H18" s="4">
-        <v>875.85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="8" t="s">
+        <v>636.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>6923</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="10">
-        <v>2.39</v>
-      </c>
-      <c r="F19" s="4"/>
+        <v>7069</v>
+      </c>
+      <c r="D19" s="2">
+        <f>SUM(C19,-C21)</f>
+        <v>146</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="3"/>
+        <v>354.78000000000003</v>
+      </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="20" t="s">
+      <c r="A20" s="12">
+        <v>43563</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>13393</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="9">
+        <v>4.57</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4">
+        <v>875.85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>6923</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="10">
+        <v>2.39</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="18">
-        <f>SUM(G2:G19)</f>
-        <v>13349.85</v>
-      </c>
-      <c r="H20" s="18">
-        <f>SUM(H2:H19)</f>
-        <v>13487.060000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="19" t="s">
+      <c r="G22" s="18">
+        <f>SUM(G2:G21)</f>
+        <v>15263.1</v>
+      </c>
+      <c r="H22" s="18">
+        <f>SUM(H2:H21)</f>
+        <v>15395.210000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4">
-        <f>SUM(H20,-G20)</f>
-        <v>137.21000000000095</v>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4">
+        <f>SUM(H22,-G22)</f>
+        <v>132.11000000000058</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/82ee.xlsx
+++ b/sputnik/personal/ee/82ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -106,7 +106,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +116,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -162,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -215,6 +221,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -522,10 +529,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -570,31 +577,31 @@
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21">
-        <v>44221</v>
+        <v>44313</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>15956</v>
+        <v>16563</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>325</v>
+        <v>239</v>
       </c>
       <c r="E2" s="6">
         <v>4.71</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>1530.75</v>
+        <v>1125.69</v>
       </c>
       <c r="G2" s="4">
         <f>SUM(F2,F3)</f>
-        <v>1913.25</v>
+        <v>1421.49</v>
       </c>
       <c r="H2" s="4">
-        <v>1908.15</v>
+        <v>1421.49</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -603,49 +610,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>8304</v>
+        <v>8602</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" si="1"/>
-        <v>382.5</v>
+        <v>295.79999999999995</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>44176</v>
+      <c r="A4" s="22">
+        <v>44285</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>15631</v>
+        <v>16324</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D17" si="2">SUM(C4,-C6)</f>
-        <v>350</v>
+        <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
+        <v>368</v>
       </c>
       <c r="E4" s="6">
         <v>4.71</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" ref="F4:F20" si="3">D4*E4</f>
-        <v>1648.5</v>
+        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
+        <v>1733.28</v>
       </c>
       <c r="G4" s="4">
         <f>SUM(F4,F5)</f>
-        <v>2031</v>
+        <v>2197.38</v>
       </c>
       <c r="H4" s="4">
-        <v>2036.1</v>
+        <v>2197.38</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -654,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>8154</v>
+        <v>8486</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="E5" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="3"/>
-        <v>382.5</v>
+        <v>464.09999999999997</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>44081</v>
+      <c r="A6" s="22">
+        <v>44221</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>15281</v>
+        <v>15956</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="2"/>
-        <v>703</v>
+        <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
+        <v>325</v>
       </c>
       <c r="E6" s="6">
         <v>4.71</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="3"/>
-        <v>3311.13</v>
+        <f t="shared" ref="F6:F7" si="5">D6*E6</f>
+        <v>1530.75</v>
       </c>
       <c r="G6" s="4">
         <f>SUM(F6,F7)</f>
-        <v>3311.13</v>
+        <v>1913.25</v>
       </c>
       <c r="H6" s="4">
-        <v>3311.13</v>
+        <v>1908.15</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -705,49 +712,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>8004</v>
+        <v>8304</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>150</v>
       </c>
       <c r="E7" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>382.5</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>44064</v>
+        <v>44176</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>14578</v>
+        <v>15631</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="D8:D21" si="6">SUM(C8,-C10)</f>
+        <v>350</v>
       </c>
       <c r="E8" s="6">
         <v>4.71</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="F8:F23" si="7">D8*E8</f>
+        <v>1648.5</v>
       </c>
       <c r="G8" s="4">
         <f>SUM(F8,F9)</f>
-        <v>1280.0999999999999</v>
+        <v>2031</v>
       </c>
       <c r="H8" s="4">
-        <v>1280.0999999999999</v>
+        <v>2036.1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -756,49 +763,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>8004</v>
+        <v>8154</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="2"/>
-        <v>502</v>
+        <f t="shared" si="6"/>
+        <v>150</v>
       </c>
       <c r="E9" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="3"/>
-        <v>1280.0999999999999</v>
+        <f t="shared" si="7"/>
+        <v>382.5</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>43980</v>
+        <v>44081</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>14578</v>
+        <v>15281</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="2"/>
-        <v>456</v>
+        <f t="shared" si="6"/>
+        <v>703</v>
       </c>
       <c r="E10" s="6">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="3"/>
-        <v>2047.44</v>
+        <f t="shared" si="7"/>
+        <v>3311.13</v>
       </c>
       <c r="G10" s="4">
         <f>SUM(F10,F11)</f>
-        <v>2360.91</v>
+        <v>3311.13</v>
       </c>
       <c r="H10" s="4">
-        <v>2355</v>
+        <v>3311.13</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -807,49 +814,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>7502</v>
+        <v>8004</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="2"/>
-        <v>129</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="3"/>
-        <v>313.47000000000003</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>43917</v>
+        <v>44064</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>14122</v>
+        <v>14578</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="2"/>
-        <v>321</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="E12" s="6">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="3"/>
-        <v>1441.29</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="G12" s="4">
         <f>SUM(F12,F13)</f>
-        <v>1900.56</v>
+        <v>1280.0999999999999</v>
       </c>
       <c r="H12" s="4">
-        <v>2000</v>
+        <v>1280.0999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -858,49 +865,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>7373</v>
+        <v>8004</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="2"/>
-        <v>189</v>
+        <f t="shared" si="6"/>
+        <v>502</v>
       </c>
       <c r="E13" s="2">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="3"/>
-        <v>459.27000000000004</v>
+        <f t="shared" si="7"/>
+        <v>1280.0999999999999</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>43763</v>
+        <v>43980</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>13801</v>
+        <v>14578</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="2"/>
-        <v>119</v>
+        <f t="shared" si="6"/>
+        <v>456</v>
       </c>
       <c r="E14" s="6">
         <v>4.49</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="3"/>
-        <v>534.31000000000006</v>
+        <f t="shared" si="7"/>
+        <v>2047.44</v>
       </c>
       <c r="G14" s="4">
         <f>SUM(F14,F15)</f>
-        <v>711.7</v>
+        <v>2360.91</v>
       </c>
       <c r="H14" s="4">
-        <v>711.6</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -909,49 +916,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>7184</v>
+        <v>7502</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="2"/>
-        <v>73</v>
+        <f t="shared" si="6"/>
+        <v>129</v>
       </c>
       <c r="E15" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="3"/>
-        <v>177.39000000000001</v>
+        <f t="shared" si="7"/>
+        <v>313.47000000000003</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>43704</v>
+        <v>43917</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>13682</v>
+        <v>14122</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="2"/>
-        <v>52</v>
+        <f t="shared" si="6"/>
+        <v>321</v>
       </c>
       <c r="E16" s="6">
         <v>4.49</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="3"/>
-        <v>233.48000000000002</v>
+        <f t="shared" si="7"/>
+        <v>1441.29</v>
       </c>
       <c r="G16" s="4">
         <f>SUM(F16,F17)</f>
-        <v>335.54</v>
+        <v>1900.56</v>
       </c>
       <c r="H16" s="4">
-        <v>281.16000000000003</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -960,135 +967,237 @@
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>7111</v>
+        <v>7373</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="2"/>
-        <v>42</v>
+        <f t="shared" si="6"/>
+        <v>189</v>
       </c>
       <c r="E17" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="3"/>
-        <v>102.06</v>
+        <f t="shared" si="7"/>
+        <v>459.27000000000004</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <v>43656</v>
+      <c r="A18" s="7">
+        <v>43763</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>13630</v>
+        <v>13801</v>
       </c>
       <c r="D18" s="2">
-        <f>SUM(C18,-C20)</f>
-        <v>237</v>
+        <f t="shared" si="6"/>
+        <v>119</v>
       </c>
       <c r="E18" s="6">
         <v>4.49</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="3"/>
-        <v>1064.1300000000001</v>
+        <f t="shared" si="7"/>
+        <v>534.31000000000006</v>
       </c>
       <c r="G18" s="4">
         <f>SUM(F18,F19)</f>
-        <v>1418.91</v>
+        <v>711.7</v>
       </c>
       <c r="H18" s="4">
-        <v>636.12</v>
+        <v>711.6</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>7069</v>
+        <v>7184</v>
       </c>
       <c r="D19" s="2">
-        <f>SUM(C19,-C21)</f>
-        <v>146</v>
+        <f t="shared" si="6"/>
+        <v>73</v>
       </c>
       <c r="E19" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="3"/>
-        <v>354.78000000000003</v>
+        <f t="shared" si="7"/>
+        <v>177.39000000000001</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
-        <v>43563</v>
+      <c r="A20" s="7">
+        <v>43704</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>13393</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="9">
-        <v>4.57</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="4"/>
+        <v>13682</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="7"/>
+        <v>233.48000000000002</v>
+      </c>
+      <c r="G20" s="4">
+        <f>SUM(F20,F21)</f>
+        <v>335.54</v>
+      </c>
       <c r="H20" s="4">
-        <v>875.85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="8" t="s">
+        <v>281.16000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>6923</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="10">
-        <v>2.39</v>
-      </c>
-      <c r="F21" s="4"/>
+        <v>7111</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="7"/>
+        <v>102.06</v>
+      </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="20" t="s">
+      <c r="A22" s="12">
+        <v>43656</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>13630</v>
+      </c>
+      <c r="D22" s="2">
+        <f>SUM(C22,-C24)</f>
+        <v>237</v>
+      </c>
+      <c r="E22" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="7"/>
+        <v>1064.1300000000001</v>
+      </c>
+      <c r="G22" s="4">
+        <f>SUM(F22,F23)</f>
+        <v>1418.91</v>
+      </c>
+      <c r="H22" s="4">
+        <v>636.12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>7069</v>
+      </c>
+      <c r="D23" s="2">
+        <f>SUM(C23,-C25)</f>
+        <v>146</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="7"/>
+        <v>354.78000000000003</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>43563</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>13393</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="9">
+        <v>4.57</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4">
+        <v>875.85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>6923</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="10">
+        <v>2.39</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="18">
-        <f>SUM(G2:G21)</f>
-        <v>15263.1</v>
-      </c>
-      <c r="H22" s="18">
-        <f>SUM(H2:H21)</f>
-        <v>15395.210000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="19" t="s">
+      <c r="G26" s="18">
+        <f>SUM(G2:G25)</f>
+        <v>18881.97</v>
+      </c>
+      <c r="H26" s="18">
+        <f>SUM(H2:H25)</f>
+        <v>19014.079999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4">
-        <f>SUM(H22,-G22)</f>
-        <v>132.11000000000058</v>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4">
+        <f>SUM(H26,-G26)</f>
+        <v>132.10999999999331</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/82ee.xlsx
+++ b/sputnik/personal/ee/82ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -529,10 +529,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -577,31 +577,31 @@
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21">
-        <v>44313</v>
+        <v>44390</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>16563</v>
+        <v>16848</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>239</v>
+        <v>285</v>
       </c>
       <c r="E2" s="6">
         <v>4.71</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>1125.69</v>
+        <v>1342.35</v>
       </c>
       <c r="G2" s="4">
         <f>SUM(F2,F3)</f>
-        <v>1421.49</v>
+        <v>1686.6</v>
       </c>
       <c r="H2" s="4">
-        <v>1421.49</v>
+        <v>1686.6</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -610,49 +610,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>8602</v>
+        <v>8737</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E3" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" si="1"/>
-        <v>295.79999999999995</v>
+        <v>344.25</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
-        <v>44285</v>
+        <v>44313</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>16324</v>
+        <v>16563</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
-        <v>368</v>
+        <v>239</v>
       </c>
       <c r="E4" s="6">
         <v>4.71</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>1733.28</v>
+        <v>1125.69</v>
       </c>
       <c r="G4" s="4">
         <f>SUM(F4,F5)</f>
-        <v>2197.38</v>
+        <v>1421.49</v>
       </c>
       <c r="H4" s="4">
-        <v>2197.38</v>
+        <v>1421.49</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -661,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>8486</v>
+        <v>8602</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="2"/>
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="E5" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="3"/>
-        <v>464.09999999999997</v>
+        <v>295.79999999999995</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
-        <v>44221</v>
+        <v>44285</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>15956</v>
+        <v>16324</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="E6" s="6">
         <v>4.71</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" ref="F6:F7" si="5">D6*E6</f>
-        <v>1530.75</v>
+        <v>1733.28</v>
       </c>
       <c r="G6" s="4">
         <f>SUM(F6,F7)</f>
-        <v>1913.25</v>
+        <v>2197.38</v>
       </c>
       <c r="H6" s="4">
-        <v>1908.15</v>
+        <v>2197.38</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -712,49 +712,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>8304</v>
+        <v>8486</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="4"/>
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="E7" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="5"/>
-        <v>382.5</v>
+        <v>464.09999999999997</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>44176</v>
+      <c r="A8" s="22">
+        <v>44221</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>15631</v>
+        <v>15956</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8:D21" si="6">SUM(C8,-C10)</f>
-        <v>350</v>
+        <f t="shared" ref="D8:D9" si="6">SUM(C8,-C10)</f>
+        <v>325</v>
       </c>
       <c r="E8" s="6">
         <v>4.71</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" ref="F8:F23" si="7">D8*E8</f>
-        <v>1648.5</v>
+        <f t="shared" ref="F8:F9" si="7">D8*E8</f>
+        <v>1530.75</v>
       </c>
       <c r="G8" s="4">
         <f>SUM(F8,F9)</f>
-        <v>2031</v>
+        <v>1913.25</v>
       </c>
       <c r="H8" s="4">
-        <v>2036.1</v>
+        <v>1908.15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>8154</v>
+        <v>8304</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="6"/>
@@ -781,31 +781,31 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>44081</v>
+        <v>44176</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>15281</v>
+        <v>15631</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="6"/>
-        <v>703</v>
+        <f t="shared" ref="D10:D23" si="8">SUM(C10,-C12)</f>
+        <v>350</v>
       </c>
       <c r="E10" s="6">
         <v>4.71</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="7"/>
-        <v>3311.13</v>
+        <f t="shared" ref="F10:F25" si="9">D10*E10</f>
+        <v>1648.5</v>
       </c>
       <c r="G10" s="4">
         <f>SUM(F10,F11)</f>
-        <v>3311.13</v>
+        <v>2031</v>
       </c>
       <c r="H10" s="4">
-        <v>3311.13</v>
+        <v>2036.1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -814,49 +814,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>8004</v>
+        <v>8154</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>150</v>
       </c>
       <c r="E11" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>382.5</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>44064</v>
+        <v>44081</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>14578</v>
+        <v>15281</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>703</v>
       </c>
       <c r="E12" s="6">
         <v>4.71</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>3311.13</v>
       </c>
       <c r="G12" s="4">
         <f>SUM(F12,F13)</f>
-        <v>1280.0999999999999</v>
+        <v>3311.13</v>
       </c>
       <c r="H12" s="4">
-        <v>1280.0999999999999</v>
+        <v>3311.13</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -868,22 +868,22 @@
         <v>8004</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="6"/>
-        <v>502</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="E13" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="7"/>
-        <v>1280.0999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>43980</v>
+        <v>44064</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
@@ -892,22 +892,22 @@
         <v>14578</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="6"/>
-        <v>456</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="E14" s="6">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="7"/>
-        <v>2047.44</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="G14" s="4">
         <f>SUM(F14,F15)</f>
-        <v>2360.91</v>
+        <v>1280.0999999999999</v>
       </c>
       <c r="H14" s="4">
-        <v>2355</v>
+        <v>1280.0999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -916,49 +916,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>7502</v>
+        <v>8004</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="6"/>
-        <v>129</v>
+        <f t="shared" si="8"/>
+        <v>502</v>
       </c>
       <c r="E15" s="2">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="7"/>
-        <v>313.47000000000003</v>
+        <f t="shared" si="9"/>
+        <v>1280.0999999999999</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>43917</v>
+        <v>43980</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>14122</v>
+        <v>14578</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="6"/>
-        <v>321</v>
+        <f t="shared" si="8"/>
+        <v>456</v>
       </c>
       <c r="E16" s="6">
         <v>4.49</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="7"/>
-        <v>1441.29</v>
+        <f t="shared" si="9"/>
+        <v>2047.44</v>
       </c>
       <c r="G16" s="4">
         <f>SUM(F16,F17)</f>
-        <v>1900.56</v>
+        <v>2360.91</v>
       </c>
       <c r="H16" s="4">
-        <v>2000</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -967,49 +967,49 @@
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>7373</v>
+        <v>7502</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="6"/>
-        <v>189</v>
+        <f t="shared" si="8"/>
+        <v>129</v>
       </c>
       <c r="E17" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="7"/>
-        <v>459.27000000000004</v>
+        <f t="shared" si="9"/>
+        <v>313.47000000000003</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
-        <v>43763</v>
+        <v>43917</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>13801</v>
+        <v>14122</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="6"/>
-        <v>119</v>
+        <f t="shared" si="8"/>
+        <v>321</v>
       </c>
       <c r="E18" s="6">
         <v>4.49</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="7"/>
-        <v>534.31000000000006</v>
+        <f t="shared" si="9"/>
+        <v>1441.29</v>
       </c>
       <c r="G18" s="4">
         <f>SUM(F18,F19)</f>
-        <v>711.7</v>
+        <v>1900.56</v>
       </c>
       <c r="H18" s="4">
-        <v>711.6</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1018,49 +1018,49 @@
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>7184</v>
+        <v>7373</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="6"/>
-        <v>73</v>
+        <f t="shared" si="8"/>
+        <v>189</v>
       </c>
       <c r="E19" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="7"/>
-        <v>177.39000000000001</v>
+        <f t="shared" si="9"/>
+        <v>459.27000000000004</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
-        <v>43704</v>
+        <v>43763</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>13682</v>
+        <v>13801</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="6"/>
-        <v>52</v>
+        <f t="shared" si="8"/>
+        <v>119</v>
       </c>
       <c r="E20" s="6">
         <v>4.49</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="7"/>
-        <v>233.48000000000002</v>
+        <f t="shared" si="9"/>
+        <v>534.31000000000006</v>
       </c>
       <c r="G20" s="4">
         <f>SUM(F20,F21)</f>
-        <v>335.54</v>
+        <v>711.7</v>
       </c>
       <c r="H20" s="4">
-        <v>281.16000000000003</v>
+        <v>711.6</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1069,134 +1069,185 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>7111</v>
+        <v>7184</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="6"/>
-        <v>42</v>
+        <f t="shared" si="8"/>
+        <v>73</v>
       </c>
       <c r="E21" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="7"/>
-        <v>102.06</v>
+        <f t="shared" si="9"/>
+        <v>177.39000000000001</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
-        <v>43656</v>
+      <c r="A22" s="7">
+        <v>43704</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>13630</v>
+        <v>13682</v>
       </c>
       <c r="D22" s="2">
-        <f>SUM(C22,-C24)</f>
-        <v>237</v>
+        <f t="shared" si="8"/>
+        <v>52</v>
       </c>
       <c r="E22" s="6">
         <v>4.49</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="7"/>
-        <v>1064.1300000000001</v>
+        <f t="shared" si="9"/>
+        <v>233.48000000000002</v>
       </c>
       <c r="G22" s="4">
         <f>SUM(F22,F23)</f>
-        <v>1418.91</v>
+        <v>335.54</v>
       </c>
       <c r="H22" s="4">
-        <v>636.12</v>
+        <v>281.16000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="2">
-        <v>7069</v>
+        <v>7111</v>
       </c>
       <c r="D23" s="2">
-        <f>SUM(C23,-C25)</f>
-        <v>146</v>
+        <f t="shared" si="8"/>
+        <v>42</v>
       </c>
       <c r="E23" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="7"/>
-        <v>354.78000000000003</v>
+        <f t="shared" si="9"/>
+        <v>102.06</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
-        <v>43563</v>
+        <v>43656</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>13393</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="9">
-        <v>4.57</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="4"/>
+        <v>13630</v>
+      </c>
+      <c r="D24" s="2">
+        <f>SUM(C24,-C26)</f>
+        <v>237</v>
+      </c>
+      <c r="E24" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="9"/>
+        <v>1064.1300000000001</v>
+      </c>
+      <c r="G24" s="4">
+        <f>SUM(F24,F25)</f>
+        <v>1418.91</v>
+      </c>
       <c r="H24" s="4">
-        <v>875.85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="8" t="s">
+        <v>636.12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="2">
-        <v>6923</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="10">
-        <v>2.39</v>
-      </c>
-      <c r="F25" s="4"/>
+        <v>7069</v>
+      </c>
+      <c r="D25" s="2">
+        <f>SUM(C25,-C27)</f>
+        <v>146</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="9"/>
+        <v>354.78000000000003</v>
+      </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="20" t="s">
+      <c r="A26" s="12">
+        <v>43563</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>13393</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="9">
+        <v>4.57</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4">
+        <v>875.85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>6923</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="10">
+        <v>2.39</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="18">
-        <f>SUM(G2:G25)</f>
+      <c r="G28" s="18">
+        <f>SUM(G4:G27)</f>
         <v>18881.97</v>
       </c>
-      <c r="H26" s="18">
-        <f>SUM(H2:H25)</f>
+      <c r="H28" s="18">
+        <f>SUM(H4:H27)</f>
         <v>19014.079999999994</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="19" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4">
-        <f>SUM(H26,-G26)</f>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4">
+        <f>SUM(H28,-G28)</f>
         <v>132.10999999999331</v>
       </c>
     </row>

--- a/sputnik/personal/ee/82ee.xlsx
+++ b/sputnik/personal/ee/82ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>итого</t>
+  </si>
+  <si>
+    <t>доплата</t>
   </si>
 </sst>
 </file>
@@ -529,10 +532,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -575,679 +578,754 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21">
+        <v>44467</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>44467</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>16967</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D4" si="0">SUM(C3,-C5)</f>
+        <v>119</v>
+      </c>
+      <c r="E3" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F4" si="1">D3*E3</f>
+        <v>590.24</v>
+      </c>
+      <c r="G3" s="4">
+        <f>SUM(F3,F4)</f>
+        <v>724.24</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1686.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8787</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
         <v>44390</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
         <v>16848</v>
       </c>
-      <c r="D2" s="2">
-        <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5:D6" si="2">SUM(C5,-C7)</f>
         <v>285</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E5" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" ref="F5:F6" si="3">D5*E5</f>
+        <v>1413.6</v>
+      </c>
+      <c r="G5" s="4">
+        <f>SUM(F5,F6)</f>
+        <v>1775.3999999999999</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1686.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8737</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="3"/>
+        <v>361.8</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>44313</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>16563</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:D8" si="4">SUM(C7,-C9)</f>
+        <v>239</v>
+      </c>
+      <c r="E7" s="6">
         <v>4.71</v>
       </c>
-      <c r="F2" s="4">
-        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>1342.35</v>
-      </c>
-      <c r="G2" s="4">
-        <f>SUM(F2,F3)</f>
-        <v>1686.6</v>
-      </c>
-      <c r="H2" s="4">
-        <v>1686.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="2" t="s">
+      <c r="F7" s="4">
+        <f t="shared" ref="F7:F8" si="5">D7*E7</f>
+        <v>1125.69</v>
+      </c>
+      <c r="G7" s="4">
+        <f>SUM(F7,F8)</f>
+        <v>1421.49</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1421.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
-        <v>8737</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="C8" s="2">
+        <v>8602</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="4"/>
+        <v>116</v>
+      </c>
+      <c r="E8" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F3" s="4">
-        <f t="shared" si="1"/>
-        <v>344.25</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
-        <v>44313</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>16563</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
-        <v>239</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="F8" s="4">
+        <f t="shared" si="5"/>
+        <v>295.79999999999995</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>44285</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>16324</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" ref="D9:D10" si="6">SUM(C9,-C11)</f>
+        <v>368</v>
+      </c>
+      <c r="E9" s="6">
         <v>4.71</v>
       </c>
-      <c r="F4" s="4">
-        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>1125.69</v>
-      </c>
-      <c r="G4" s="4">
-        <f>SUM(F4,F5)</f>
-        <v>1421.49</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1421.49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="2" t="s">
+      <c r="F9" s="4">
+        <f t="shared" ref="F9:F10" si="7">D9*E9</f>
+        <v>1733.28</v>
+      </c>
+      <c r="G9" s="4">
+        <f>SUM(F9,F10)</f>
+        <v>2197.38</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2197.38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
-        <v>8602</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="2"/>
-        <v>116</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="C10" s="2">
+        <v>8486</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="6"/>
+        <v>182</v>
+      </c>
+      <c r="E10" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F5" s="4">
-        <f t="shared" si="3"/>
-        <v>295.79999999999995</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
-        <v>44285</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>16324</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
-        <v>368</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="F10" s="4">
+        <f t="shared" si="7"/>
+        <v>464.09999999999997</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>44221</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>15956</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" ref="D11:D12" si="8">SUM(C11,-C13)</f>
+        <v>325</v>
+      </c>
+      <c r="E11" s="6">
         <v>4.71</v>
       </c>
-      <c r="F6" s="4">
-        <f t="shared" ref="F6:F7" si="5">D6*E6</f>
-        <v>1733.28</v>
-      </c>
-      <c r="G6" s="4">
-        <f>SUM(F6,F7)</f>
-        <v>2197.38</v>
-      </c>
-      <c r="H6" s="4">
-        <v>2197.38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="2" t="s">
+      <c r="F11" s="4">
+        <f t="shared" ref="F11:F12" si="9">D11*E11</f>
+        <v>1530.75</v>
+      </c>
+      <c r="G11" s="4">
+        <f>SUM(F11,F12)</f>
+        <v>1913.25</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1908.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
-        <v>8486</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="4"/>
-        <v>182</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F7" s="4">
-        <f t="shared" si="5"/>
-        <v>464.09999999999997</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
-        <v>44221</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>15956</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" ref="D8:D9" si="6">SUM(C8,-C10)</f>
-        <v>325</v>
-      </c>
-      <c r="E8" s="6">
-        <v>4.71</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" ref="F8:F9" si="7">D8*E8</f>
-        <v>1530.75</v>
-      </c>
-      <c r="G8" s="4">
-        <f>SUM(F8,F9)</f>
-        <v>1913.25</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1908.15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="C12" s="2">
         <v>8304</v>
       </c>
-      <c r="D9" s="2">
-        <f t="shared" si="6"/>
-        <v>150</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F9" s="4">
-        <f t="shared" si="7"/>
-        <v>382.5</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>44176</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>15631</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" ref="D10:D23" si="8">SUM(C10,-C12)</f>
-        <v>350</v>
-      </c>
-      <c r="E10" s="6">
-        <v>4.71</v>
-      </c>
-      <c r="F10" s="4">
-        <f t="shared" ref="F10:F25" si="9">D10*E10</f>
-        <v>1648.5</v>
-      </c>
-      <c r="G10" s="4">
-        <f>SUM(F10,F11)</f>
-        <v>2031</v>
-      </c>
-      <c r="H10" s="4">
-        <v>2036.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>8154</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="D12" s="2">
         <f t="shared" si="8"/>
         <v>150</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F12" s="4">
         <f t="shared" si="9"/>
         <v>382.5</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>44176</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>15631</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:D26" si="10">SUM(C13,-C15)</f>
+        <v>350</v>
+      </c>
+      <c r="E13" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" ref="F13:F28" si="11">D13*E13</f>
+        <v>1648.5</v>
+      </c>
+      <c r="G13" s="4">
+        <f>SUM(F13,F14)</f>
+        <v>2031</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2036.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8154</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="10"/>
+        <v>150</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="11"/>
+        <v>382.5</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>44081</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
         <v>15281</v>
       </c>
-      <c r="D12" s="2">
-        <f t="shared" si="8"/>
+      <c r="D15" s="2">
+        <f t="shared" si="10"/>
         <v>703</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E15" s="6">
         <v>4.71</v>
       </c>
-      <c r="F12" s="4">
-        <f t="shared" si="9"/>
+      <c r="F15" s="4">
+        <f t="shared" si="11"/>
         <v>3311.13</v>
       </c>
-      <c r="G12" s="4">
-        <f>SUM(F12,F13)</f>
+      <c r="G15" s="4">
+        <f>SUM(F15,F16)</f>
         <v>3311.13</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H15" s="4">
         <v>3311.13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="2" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C16" s="2">
         <v>8004</v>
       </c>
-      <c r="D13" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D16" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F13" s="4">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="F16" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
         <v>44064</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
         <v>14578</v>
       </c>
-      <c r="D14" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="D17" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
         <v>4.71</v>
       </c>
-      <c r="F14" s="4">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <f>SUM(F14,F15)</f>
+      <c r="F17" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <f>SUM(F17,F18)</f>
         <v>1280.0999999999999</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H17" s="4">
         <v>1280.0999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="2" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C18" s="2">
         <v>8004</v>
       </c>
-      <c r="D15" s="2">
-        <f t="shared" si="8"/>
+      <c r="D18" s="2">
+        <f t="shared" si="10"/>
         <v>502</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E18" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F15" s="4">
-        <f t="shared" si="9"/>
+      <c r="F18" s="4">
+        <f t="shared" si="11"/>
         <v>1280.0999999999999</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
         <v>43980</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
         <v>14578</v>
       </c>
-      <c r="D16" s="2">
-        <f t="shared" si="8"/>
+      <c r="D19" s="2">
+        <f t="shared" si="10"/>
         <v>456</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E19" s="6">
         <v>4.49</v>
       </c>
-      <c r="F16" s="4">
-        <f t="shared" si="9"/>
+      <c r="F19" s="4">
+        <f t="shared" si="11"/>
         <v>2047.44</v>
       </c>
-      <c r="G16" s="4">
-        <f>SUM(F16,F17)</f>
+      <c r="G19" s="4">
+        <f>SUM(F19,F20)</f>
         <v>2360.91</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H19" s="4">
         <v>2355</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="2" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C20" s="2">
         <v>7502</v>
       </c>
-      <c r="D17" s="2">
-        <f t="shared" si="8"/>
+      <c r="D20" s="2">
+        <f t="shared" si="10"/>
         <v>129</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E20" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F17" s="4">
-        <f t="shared" si="9"/>
+      <c r="F20" s="4">
+        <f t="shared" si="11"/>
         <v>313.47000000000003</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>43917</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
         <v>14122</v>
       </c>
-      <c r="D18" s="2">
-        <f t="shared" si="8"/>
+      <c r="D21" s="2">
+        <f t="shared" si="10"/>
         <v>321</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E21" s="6">
         <v>4.49</v>
       </c>
-      <c r="F18" s="4">
-        <f t="shared" si="9"/>
+      <c r="F21" s="4">
+        <f t="shared" si="11"/>
         <v>1441.29</v>
       </c>
-      <c r="G18" s="4">
-        <f>SUM(F18,F19)</f>
+      <c r="G21" s="4">
+        <f>SUM(F21,F22)</f>
         <v>1900.56</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H21" s="4">
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="2" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C22" s="2">
         <v>7373</v>
       </c>
-      <c r="D19" s="2">
-        <f t="shared" si="8"/>
+      <c r="D22" s="2">
+        <f t="shared" si="10"/>
         <v>189</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E22" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F19" s="4">
-        <f t="shared" si="9"/>
+      <c r="F22" s="4">
+        <f t="shared" si="11"/>
         <v>459.27000000000004</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
         <v>43763</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="B23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
         <v>13801</v>
       </c>
-      <c r="D20" s="2">
-        <f t="shared" si="8"/>
+      <c r="D23" s="2">
+        <f t="shared" si="10"/>
         <v>119</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E23" s="6">
         <v>4.49</v>
       </c>
-      <c r="F20" s="4">
-        <f t="shared" si="9"/>
+      <c r="F23" s="4">
+        <f t="shared" si="11"/>
         <v>534.31000000000006</v>
       </c>
-      <c r="G20" s="4">
-        <f>SUM(F20,F21)</f>
+      <c r="G23" s="4">
+        <f>SUM(F23,F24)</f>
         <v>711.7</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H23" s="4">
         <v>711.6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="2" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C24" s="2">
         <v>7184</v>
       </c>
-      <c r="D21" s="2">
-        <f t="shared" si="8"/>
+      <c r="D24" s="2">
+        <f t="shared" si="10"/>
         <v>73</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E24" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F21" s="4">
-        <f t="shared" si="9"/>
+      <c r="F24" s="4">
+        <f t="shared" si="11"/>
         <v>177.39000000000001</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
         <v>43704</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="B25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
         <v>13682</v>
       </c>
-      <c r="D22" s="2">
-        <f t="shared" si="8"/>
+      <c r="D25" s="2">
+        <f t="shared" si="10"/>
         <v>52</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E25" s="6">
         <v>4.49</v>
       </c>
-      <c r="F22" s="4">
-        <f t="shared" si="9"/>
+      <c r="F25" s="4">
+        <f t="shared" si="11"/>
         <v>233.48000000000002</v>
       </c>
-      <c r="G22" s="4">
-        <f>SUM(F22,F23)</f>
+      <c r="G25" s="4">
+        <f>SUM(F25,F26)</f>
         <v>335.54</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H25" s="4">
         <v>281.16000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="2" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C26" s="2">
         <v>7111</v>
       </c>
-      <c r="D23" s="2">
-        <f t="shared" si="8"/>
+      <c r="D26" s="2">
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E26" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F23" s="4">
-        <f t="shared" si="9"/>
+      <c r="F26" s="4">
+        <f t="shared" si="11"/>
         <v>102.06</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
         <v>43656</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="B27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
         <v>13630</v>
       </c>
-      <c r="D24" s="2">
-        <f>SUM(C24,-C26)</f>
+      <c r="D27" s="2">
+        <f>SUM(C27,-C29)</f>
         <v>237</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E27" s="6">
         <v>4.49</v>
       </c>
-      <c r="F24" s="4">
-        <f t="shared" si="9"/>
+      <c r="F27" s="4">
+        <f t="shared" si="11"/>
         <v>1064.1300000000001</v>
       </c>
-      <c r="G24" s="4">
-        <f>SUM(F24,F25)</f>
+      <c r="G27" s="4">
+        <f>SUM(F27,F28)</f>
         <v>1418.91</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H27" s="4">
         <v>636.12</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="2" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C28" s="2">
         <v>7069</v>
       </c>
-      <c r="D25" s="2">
-        <f>SUM(C25,-C27)</f>
+      <c r="D28" s="2">
+        <f>SUM(C28,-C30)</f>
         <v>146</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E28" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F25" s="4">
-        <f t="shared" si="9"/>
+      <c r="F28" s="4">
+        <f t="shared" si="11"/>
         <v>354.78000000000003</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
         <v>43563</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="B29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
         <v>13393</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="9">
+      <c r="D29" s="2"/>
+      <c r="E29" s="9">
         <v>4.57</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4">
-        <v>875.85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2">
-        <v>6923</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="10">
-        <v>2.39</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="18">
-        <f>SUM(G4:G27)</f>
-        <v>18881.97</v>
-      </c>
-      <c r="H28" s="18">
-        <f>SUM(H4:H27)</f>
-        <v>19014.079999999994</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="19" t="s">
-        <v>10</v>
-      </c>
+      <c r="F29" s="11"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4">
-        <f>SUM(H28,-G28)</f>
+        <v>875.85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
+      <c r="B30" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>6923</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="10">
+        <v>2.39</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="18">
+        <f>SUM(G7:G30)</f>
+        <v>18881.97</v>
+      </c>
+      <c r="H31" s="18">
+        <f>SUM(H7:H30)</f>
+        <v>19014.079999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F32" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4">
+        <f>SUM(H31,-G31)</f>
         <v>132.10999999999331</v>
       </c>
     </row>

--- a/sputnik/personal/ee/82ee.xlsx
+++ b/sputnik/personal/ee/82ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -532,10 +532,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -580,103 +580,103 @@
     </row>
     <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21">
+        <v>44515</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>17221</v>
+      </c>
+      <c r="D2" s="2">
+        <f>SUM(C2,-C5)</f>
+        <v>254</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F2" s="4">
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <v>1259.8399999999999</v>
+      </c>
+      <c r="G2" s="4">
+        <f>SUM(F2,F3)</f>
+        <v>1506.3999999999999</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1506.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8879</v>
+      </c>
+      <c r="D3" s="2">
+        <f>SUM(C3,-C6)</f>
+        <v>92</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" si="0"/>
+        <v>246.56</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
         <v>44467</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
         <v>88.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
-        <v>44467</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>16967</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D4" si="0">SUM(C3,-C5)</f>
-        <v>119</v>
-      </c>
-      <c r="E3" s="6">
-        <v>4.96</v>
-      </c>
-      <c r="F3" s="4">
-        <f t="shared" ref="F3:F4" si="1">D3*E3</f>
-        <v>590.24</v>
-      </c>
-      <c r="G3" s="4">
-        <f>SUM(F3,F4)</f>
-        <v>724.24</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1686.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>8787</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2.68</v>
-      </c>
-      <c r="F4" s="4">
-        <f t="shared" si="1"/>
-        <v>134</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
-        <v>44390</v>
+        <v>44467</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>16848</v>
+        <v>16967</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D6" si="2">SUM(C5,-C7)</f>
-        <v>285</v>
+        <f t="shared" ref="D5:D6" si="1">SUM(C5,-C7)</f>
+        <v>119</v>
       </c>
       <c r="E5" s="6">
         <v>4.96</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ref="F5:F6" si="3">D5*E5</f>
-        <v>1413.6</v>
+        <f t="shared" ref="F5:F6" si="2">D5*E5</f>
+        <v>590.24</v>
       </c>
       <c r="G5" s="4">
         <f>SUM(F5,F6)</f>
-        <v>1775.3999999999999</v>
+        <v>724.24</v>
       </c>
       <c r="H5" s="4">
         <v>1686.6</v>
@@ -688,49 +688,49 @@
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>8737</v>
+        <v>8787</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="2"/>
-        <v>135</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="E6" s="2">
         <v>2.68</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="3"/>
-        <v>361.8</v>
+        <f t="shared" si="2"/>
+        <v>134</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
-        <v>44313</v>
+        <v>44390</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>16563</v>
+        <v>16848</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D7:D8" si="4">SUM(C7,-C9)</f>
-        <v>239</v>
+        <f t="shared" ref="D7:D8" si="3">SUM(C7,-C9)</f>
+        <v>285</v>
       </c>
       <c r="E7" s="6">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" ref="F7:F8" si="5">D7*E7</f>
-        <v>1125.69</v>
+        <f t="shared" ref="F7:F8" si="4">D7*E7</f>
+        <v>1413.6</v>
       </c>
       <c r="G7" s="4">
         <f>SUM(F7,F8)</f>
-        <v>1421.49</v>
+        <v>1775.3999999999999</v>
       </c>
       <c r="H7" s="4">
-        <v>1421.49</v>
+        <v>1686.6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -739,49 +739,49 @@
         <v>1</v>
       </c>
       <c r="C8" s="2">
-        <v>8602</v>
+        <v>8737</v>
       </c>
       <c r="D8" s="2">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F8" s="4">
         <f t="shared" si="4"/>
-        <v>116</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" si="5"/>
-        <v>295.79999999999995</v>
+        <v>361.8</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
-        <v>44285</v>
+        <v>44313</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>16324</v>
+        <v>16563</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9:D10" si="6">SUM(C9,-C11)</f>
-        <v>368</v>
+        <f t="shared" ref="D9:D10" si="5">SUM(C9,-C11)</f>
+        <v>239</v>
       </c>
       <c r="E9" s="6">
         <v>4.71</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" ref="F9:F10" si="7">D9*E9</f>
-        <v>1733.28</v>
+        <f t="shared" ref="F9:F10" si="6">D9*E9</f>
+        <v>1125.69</v>
       </c>
       <c r="G9" s="4">
         <f>SUM(F9,F10)</f>
-        <v>2197.38</v>
+        <v>1421.49</v>
       </c>
       <c r="H9" s="4">
-        <v>2197.38</v>
+        <v>1421.49</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -790,49 +790,49 @@
         <v>1</v>
       </c>
       <c r="C10" s="2">
-        <v>8486</v>
+        <v>8602</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="6"/>
-        <v>182</v>
+        <f t="shared" si="5"/>
+        <v>116</v>
       </c>
       <c r="E10" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="7"/>
-        <v>464.09999999999997</v>
+        <f t="shared" si="6"/>
+        <v>295.79999999999995</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
-        <v>44221</v>
+        <v>44285</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>15956</v>
+        <v>16324</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" ref="D11:D12" si="8">SUM(C11,-C13)</f>
-        <v>325</v>
+        <f t="shared" ref="D11:D12" si="7">SUM(C11,-C13)</f>
+        <v>368</v>
       </c>
       <c r="E11" s="6">
         <v>4.71</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" ref="F11:F12" si="9">D11*E11</f>
-        <v>1530.75</v>
+        <f t="shared" ref="F11:F12" si="8">D11*E11</f>
+        <v>1733.28</v>
       </c>
       <c r="G11" s="4">
         <f>SUM(F11,F12)</f>
-        <v>1913.25</v>
+        <v>2197.38</v>
       </c>
       <c r="H11" s="4">
-        <v>1908.15</v>
+        <v>2197.38</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -841,49 +841,49 @@
         <v>1</v>
       </c>
       <c r="C12" s="2">
-        <v>8304</v>
+        <v>8486</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="8"/>
-        <v>150</v>
+        <f t="shared" si="7"/>
+        <v>182</v>
       </c>
       <c r="E12" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="9"/>
-        <v>382.5</v>
+        <f t="shared" si="8"/>
+        <v>464.09999999999997</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>44176</v>
+      <c r="A13" s="22">
+        <v>44221</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="2">
-        <v>15631</v>
+        <v>15956</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" ref="D13:D26" si="10">SUM(C13,-C15)</f>
-        <v>350</v>
+        <f t="shared" ref="D13:D14" si="9">SUM(C13,-C15)</f>
+        <v>325</v>
       </c>
       <c r="E13" s="6">
         <v>4.71</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" ref="F13:F28" si="11">D13*E13</f>
-        <v>1648.5</v>
+        <f t="shared" ref="F13:F14" si="10">D13*E13</f>
+        <v>1530.75</v>
       </c>
       <c r="G13" s="4">
         <f>SUM(F13,F14)</f>
-        <v>2031</v>
+        <v>1913.25</v>
       </c>
       <c r="H13" s="4">
-        <v>2036.1</v>
+        <v>1908.15</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -892,17 +892,17 @@
         <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>8154</v>
+        <v>8304</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>150</v>
       </c>
       <c r="E14" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>382.5</v>
       </c>
       <c r="G14" s="4"/>
@@ -910,31 +910,31 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>44081</v>
+        <v>44176</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="2">
-        <v>15281</v>
+        <v>15631</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="10"/>
-        <v>703</v>
+        <f t="shared" ref="D15:D28" si="11">SUM(C15,-C17)</f>
+        <v>350</v>
       </c>
       <c r="E15" s="6">
         <v>4.71</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="11"/>
-        <v>3311.13</v>
+        <f t="shared" ref="F15:F30" si="12">D15*E15</f>
+        <v>1648.5</v>
       </c>
       <c r="G15" s="4">
         <f>SUM(F15,F16)</f>
-        <v>3311.13</v>
+        <v>2031</v>
       </c>
       <c r="H15" s="4">
-        <v>3311.13</v>
+        <v>2036.1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -943,49 +943,49 @@
         <v>1</v>
       </c>
       <c r="C16" s="2">
-        <v>8004</v>
+        <v>8154</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>150</v>
       </c>
       <c r="E16" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>382.5</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <v>44064</v>
+        <v>44081</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="2">
-        <v>14578</v>
+        <v>15281</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>703</v>
       </c>
       <c r="E17" s="6">
         <v>4.71</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>3311.13</v>
       </c>
       <c r="G17" s="4">
         <f>SUM(F17,F18)</f>
-        <v>1280.0999999999999</v>
+        <v>3311.13</v>
       </c>
       <c r="H17" s="4">
-        <v>1280.0999999999999</v>
+        <v>3311.13</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -997,22 +997,22 @@
         <v>8004</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="10"/>
-        <v>502</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="E18" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="11"/>
-        <v>1280.0999999999999</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
-        <v>43980</v>
+        <v>44064</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>0</v>
@@ -1021,22 +1021,22 @@
         <v>14578</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="10"/>
-        <v>456</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="E19" s="6">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="11"/>
-        <v>2047.44</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="G19" s="4">
         <f>SUM(F19,F20)</f>
-        <v>2360.91</v>
+        <v>1280.0999999999999</v>
       </c>
       <c r="H19" s="4">
-        <v>2355</v>
+        <v>1280.0999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1045,49 +1045,49 @@
         <v>1</v>
       </c>
       <c r="C20" s="2">
-        <v>7502</v>
+        <v>8004</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="10"/>
-        <v>129</v>
+        <f t="shared" si="11"/>
+        <v>502</v>
       </c>
       <c r="E20" s="2">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="11"/>
-        <v>313.47000000000003</v>
+        <f t="shared" si="12"/>
+        <v>1280.0999999999999</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
-        <v>43917</v>
+        <v>43980</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="2">
-        <v>14122</v>
+        <v>14578</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="10"/>
-        <v>321</v>
+        <f t="shared" si="11"/>
+        <v>456</v>
       </c>
       <c r="E21" s="6">
         <v>4.49</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="11"/>
-        <v>1441.29</v>
+        <f t="shared" si="12"/>
+        <v>2047.44</v>
       </c>
       <c r="G21" s="4">
         <f>SUM(F21,F22)</f>
-        <v>1900.56</v>
+        <v>2360.91</v>
       </c>
       <c r="H21" s="4">
-        <v>2000</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1096,49 +1096,49 @@
         <v>1</v>
       </c>
       <c r="C22" s="2">
-        <v>7373</v>
+        <v>7502</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="10"/>
-        <v>189</v>
+        <f t="shared" si="11"/>
+        <v>129</v>
       </c>
       <c r="E22" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="11"/>
-        <v>459.27000000000004</v>
+        <f t="shared" si="12"/>
+        <v>313.47000000000003</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
-        <v>43763</v>
+        <v>43917</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="2">
-        <v>13801</v>
+        <v>14122</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="10"/>
-        <v>119</v>
+        <f t="shared" si="11"/>
+        <v>321</v>
       </c>
       <c r="E23" s="6">
         <v>4.49</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="11"/>
-        <v>534.31000000000006</v>
+        <f t="shared" si="12"/>
+        <v>1441.29</v>
       </c>
       <c r="G23" s="4">
         <f>SUM(F23,F24)</f>
-        <v>711.7</v>
+        <v>1900.56</v>
       </c>
       <c r="H23" s="4">
-        <v>711.6</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1147,49 +1147,49 @@
         <v>1</v>
       </c>
       <c r="C24" s="2">
-        <v>7184</v>
+        <v>7373</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="10"/>
-        <v>73</v>
+        <f t="shared" si="11"/>
+        <v>189</v>
       </c>
       <c r="E24" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="11"/>
-        <v>177.39000000000001</v>
+        <f t="shared" si="12"/>
+        <v>459.27000000000004</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
-        <v>43704</v>
+        <v>43763</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>13682</v>
+        <v>13801</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="10"/>
-        <v>52</v>
+        <f t="shared" si="11"/>
+        <v>119</v>
       </c>
       <c r="E25" s="6">
         <v>4.49</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="11"/>
-        <v>233.48000000000002</v>
+        <f t="shared" si="12"/>
+        <v>534.31000000000006</v>
       </c>
       <c r="G25" s="4">
         <f>SUM(F25,F26)</f>
-        <v>335.54</v>
+        <v>711.7</v>
       </c>
       <c r="H25" s="4">
-        <v>281.16000000000003</v>
+        <v>711.6</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1198,135 +1198,186 @@
         <v>1</v>
       </c>
       <c r="C26" s="2">
-        <v>7111</v>
+        <v>7184</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="10"/>
-        <v>42</v>
+        <f t="shared" si="11"/>
+        <v>73</v>
       </c>
       <c r="E26" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="11"/>
-        <v>102.06</v>
+        <f t="shared" si="12"/>
+        <v>177.39000000000001</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
-        <v>43656</v>
+      <c r="A27" s="7">
+        <v>43704</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="2">
-        <v>13630</v>
+        <v>13682</v>
       </c>
       <c r="D27" s="2">
-        <f>SUM(C27,-C29)</f>
-        <v>237</v>
+        <f t="shared" si="11"/>
+        <v>52</v>
       </c>
       <c r="E27" s="6">
         <v>4.49</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="11"/>
-        <v>1064.1300000000001</v>
+        <f t="shared" si="12"/>
+        <v>233.48000000000002</v>
       </c>
       <c r="G27" s="4">
         <f>SUM(F27,F28)</f>
-        <v>1418.91</v>
+        <v>335.54</v>
       </c>
       <c r="H27" s="4">
-        <v>636.12</v>
+        <v>281.16000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="2">
-        <v>7069</v>
+        <v>7111</v>
       </c>
       <c r="D28" s="2">
-        <f>SUM(C28,-C30)</f>
-        <v>146</v>
+        <f t="shared" si="11"/>
+        <v>42</v>
       </c>
       <c r="E28" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="11"/>
-        <v>354.78000000000003</v>
+        <f t="shared" si="12"/>
+        <v>102.06</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
-        <v>43563</v>
+        <v>43656</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C29" s="2">
-        <v>13393</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="9">
-        <v>4.57</v>
-      </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="4"/>
+        <v>13630</v>
+      </c>
+      <c r="D29" s="2">
+        <f>SUM(C29,-C31)</f>
+        <v>237</v>
+      </c>
+      <c r="E29" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="12"/>
+        <v>1064.1300000000001</v>
+      </c>
+      <c r="G29" s="4">
+        <f>SUM(F29,F30)</f>
+        <v>1418.91</v>
+      </c>
       <c r="H29" s="4">
-        <v>875.85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="8" t="s">
+        <v>636.12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="2">
-        <v>6923</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="10">
-        <v>2.39</v>
-      </c>
-      <c r="F30" s="4"/>
+        <v>7069</v>
+      </c>
+      <c r="D30" s="2">
+        <f>SUM(C30,-C32)</f>
+        <v>146</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="12"/>
+        <v>354.78000000000003</v>
+      </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="20" t="s">
+      <c r="A31" s="12">
+        <v>43563</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2">
+        <v>13393</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="9">
+        <v>4.57</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4">
+        <v>875.85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+      <c r="B32" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>6923</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="10">
+        <v>2.39</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="18">
-        <f>SUM(G7:G30)</f>
-        <v>18881.97</v>
-      </c>
-      <c r="H31" s="18">
-        <f>SUM(H7:H30)</f>
-        <v>19014.079999999994</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F32" s="19" t="s">
+      <c r="G33" s="18">
+        <f>SUM(G4:G32)</f>
+        <v>21381.610000000004</v>
+      </c>
+      <c r="H33" s="18">
+        <f>SUM(H4:H32)</f>
+        <v>22476.079999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F34" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4">
-        <f>SUM(H31,-G31)</f>
-        <v>132.10999999999331</v>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4">
+        <f>SUM(H33,-G33)</f>
+        <v>1094.4699999999903</v>
       </c>
     </row>
   </sheetData>
